--- a/excel/mata_kuliah.xlsx
+++ b/excel/mata_kuliah.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultramen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\twig_template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="mata_kuliah" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="DD">[1]Sheet1!$C$9:$C$16</definedName>
     <definedName name="jenis_mata_kuliah">Sheet1!$C$3:$C$7</definedName>
     <definedName name="jenj_pendidikan">Sheet1!$C$18:$C$27</definedName>
     <definedName name="kel_mata_kuliah">Sheet1!$C$9:$C$16</definedName>
     <definedName name="option">Sheet1!$C$29:$C$30</definedName>
     <definedName name="prodi">Sheet1!$C$32:$C$53</definedName>
+    <definedName name="ZFSDFGDG">[1]Sheet1!$C$18:$C$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="240">
   <si>
     <t>id_sms</t>
   </si>
@@ -94,9 +99,6 @@
     <t>6e343592-475a-416d-8407-f77e6a3f8689</t>
   </si>
   <si>
-    <t>FE102</t>
-  </si>
-  <si>
     <t>PENDIDIKAN KWARGANEGARAAN</t>
   </si>
   <si>
@@ -400,9 +402,6 @@
     <t xml:space="preserve">Keperawatan                                                                     </t>
   </si>
   <si>
-    <t>1f42c85c-4015-476c-8ccb-2e7b9c96b3e2 | Hukum Ekonomi Syari`ah (Mu`amalah)</t>
-  </si>
-  <si>
     <t>dd54cb24-01bc-4f01-a391-4a5efbc0f683</t>
   </si>
   <si>
@@ -413,6 +412,351 @@
   </si>
   <si>
     <t>Ilmu Politik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">833f76f5-282f-4d75-b4fa-549c5869ee7b | Teknik Elektronika                                                              </t>
+  </si>
+  <si>
+    <t>Ceramah</t>
+  </si>
+  <si>
+    <t>USQ 0101</t>
+  </si>
+  <si>
+    <t>Pendidikan Agama Islam 1</t>
+  </si>
+  <si>
+    <t>USQ 0105</t>
+  </si>
+  <si>
+    <t>Pendidikan Pancasila</t>
+  </si>
+  <si>
+    <t>Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>USQ 0108</t>
+  </si>
+  <si>
+    <t>FTE 1101</t>
+  </si>
+  <si>
+    <t>FTE 1102</t>
+  </si>
+  <si>
+    <t>FTE 1103</t>
+  </si>
+  <si>
+    <t>FTE 1110</t>
+  </si>
+  <si>
+    <t>FTE 1105</t>
+  </si>
+  <si>
+    <t>FTE 1106</t>
+  </si>
+  <si>
+    <t>FTE 1107</t>
+  </si>
+  <si>
+    <t>USQ 0102</t>
+  </si>
+  <si>
+    <t>USQ 0106</t>
+  </si>
+  <si>
+    <t>FTE 2101</t>
+  </si>
+  <si>
+    <t>FTE 2102</t>
+  </si>
+  <si>
+    <t>FTE 2103</t>
+  </si>
+  <si>
+    <t>FTE 2104</t>
+  </si>
+  <si>
+    <t>FTE 2105</t>
+  </si>
+  <si>
+    <t>FTE 2106</t>
+  </si>
+  <si>
+    <t>FTE 2107</t>
+  </si>
+  <si>
+    <t>FTE 2108</t>
+  </si>
+  <si>
+    <t>Matematika 1</t>
+  </si>
+  <si>
+    <t>Fisika 1</t>
+  </si>
+  <si>
+    <t>Elektronika Dasar</t>
+  </si>
+  <si>
+    <t>Elektronika Komputer</t>
+  </si>
+  <si>
+    <t>Menggambar Listrik</t>
+  </si>
+  <si>
+    <t>Rangkaian Listrik</t>
+  </si>
+  <si>
+    <t>Teknik Instalasi</t>
+  </si>
+  <si>
+    <t>Pendidikan Agama Islam 2</t>
+  </si>
+  <si>
+    <t>Matematika 2</t>
+  </si>
+  <si>
+    <t>Fisika 2</t>
+  </si>
+  <si>
+    <t>Dasar Konversi Energi</t>
+  </si>
+  <si>
+    <t>Elektronika Lanjut</t>
+  </si>
+  <si>
+    <t>Komponen Elektronika</t>
+  </si>
+  <si>
+    <t>Rangkaian Logika</t>
+  </si>
+  <si>
+    <t>Praktek Rangkaian Logika</t>
+  </si>
+  <si>
+    <t>Teknologi Perakitan Rangkaian Cetak</t>
+  </si>
+  <si>
+    <t>Ulumul Qur'an</t>
+  </si>
+  <si>
+    <t>Statistik dan Probabilitas</t>
+  </si>
+  <si>
+    <t>Pemrograman Dasar</t>
+  </si>
+  <si>
+    <t>Elektronika Analog</t>
+  </si>
+  <si>
+    <t>Praktikum Elektronika Analog</t>
+  </si>
+  <si>
+    <t>Dasar Sistem Komunikasi</t>
+  </si>
+  <si>
+    <t>Teknik Tenaga Listrik</t>
+  </si>
+  <si>
+    <t>Pengukuran Besaran Listrik</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>Praktikum PLC</t>
+  </si>
+  <si>
+    <t>Tahfidz 1</t>
+  </si>
+  <si>
+    <t>Ke-Al Qur'anan</t>
+  </si>
+  <si>
+    <t>USQ 0109</t>
+  </si>
+  <si>
+    <t>FTE 3101</t>
+  </si>
+  <si>
+    <t>FTE 3102</t>
+  </si>
+  <si>
+    <t>FTE 3103</t>
+  </si>
+  <si>
+    <t>FTE 3104</t>
+  </si>
+  <si>
+    <t>FTE 3105</t>
+  </si>
+  <si>
+    <t>FTE 3106</t>
+  </si>
+  <si>
+    <t>FTE 3107</t>
+  </si>
+  <si>
+    <t>FTE 3108</t>
+  </si>
+  <si>
+    <t>FTE 3109</t>
+  </si>
+  <si>
+    <t>Elektronika Digital</t>
+  </si>
+  <si>
+    <t>Praktek Elektronika Digital</t>
+  </si>
+  <si>
+    <t>Teknik Audio Video</t>
+  </si>
+  <si>
+    <t>Elektronika daya</t>
+  </si>
+  <si>
+    <t>Pemrograman Lanjut</t>
+  </si>
+  <si>
+    <t>Sistem Instrumentasi Elektronika</t>
+  </si>
+  <si>
+    <t>Teknik Perawatan dan Perbaikan</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Elektronika</t>
+  </si>
+  <si>
+    <t>Tahfidz 2</t>
+  </si>
+  <si>
+    <t>Al-Qur'an &amp; Sains Tek</t>
+  </si>
+  <si>
+    <t>Kuliah kerja Lapangan (KKL)</t>
+  </si>
+  <si>
+    <t>FTE 4101</t>
+  </si>
+  <si>
+    <t>FTE 4102</t>
+  </si>
+  <si>
+    <t>FTE 4103</t>
+  </si>
+  <si>
+    <t>FTE 4104</t>
+  </si>
+  <si>
+    <t>FTE 4105</t>
+  </si>
+  <si>
+    <t>FTE 4106</t>
+  </si>
+  <si>
+    <t>FTE 4107</t>
+  </si>
+  <si>
+    <t>FTE 4108</t>
+  </si>
+  <si>
+    <t>Etika Profesi</t>
+  </si>
+  <si>
+    <t>Metodologi Riset</t>
+  </si>
+  <si>
+    <t>Kewirausahaan</t>
+  </si>
+  <si>
+    <t>Sistem Kontrol</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Kontrol</t>
+  </si>
+  <si>
+    <t>Mikroprosessor</t>
+  </si>
+  <si>
+    <t>Praktikum Mikroprosessor</t>
+  </si>
+  <si>
+    <t>Elektronika Industri</t>
+  </si>
+  <si>
+    <t>Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t>FTE 5101</t>
+  </si>
+  <si>
+    <t>FTE 5102</t>
+  </si>
+  <si>
+    <t>FTE 5103</t>
+  </si>
+  <si>
+    <t>FTE 5104</t>
+  </si>
+  <si>
+    <t>FTE 5105</t>
+  </si>
+  <si>
+    <t>FTE 5106</t>
+  </si>
+  <si>
+    <t>FTE 5107</t>
+  </si>
+  <si>
+    <t>FTE 5108</t>
+  </si>
+  <si>
+    <t>FTE 5109</t>
+  </si>
+  <si>
+    <t>Kerja Praktek</t>
+  </si>
+  <si>
+    <t>Tugas Akhir</t>
+  </si>
+  <si>
+    <t>FTE 6101</t>
+  </si>
+  <si>
+    <t>FTE 6102</t>
+  </si>
+  <si>
+    <t>Conversation dan writing</t>
+  </si>
+  <si>
+    <t>Perhitungan</t>
+  </si>
+  <si>
+    <t>Membaca</t>
+  </si>
+  <si>
+    <t>Praktek lapangan</t>
+  </si>
+  <si>
+    <t>Praktek dan teori</t>
+  </si>
+  <si>
+    <t>Baca dan menulis</t>
+  </si>
+  <si>
+    <t>Praktek kerja</t>
+  </si>
+  <si>
+    <t>USQ0103</t>
+  </si>
+  <si>
+    <t>USQ0104</t>
+  </si>
+  <si>
+    <t>USQ0107</t>
+  </si>
+  <si>
+    <t>USQ0110</t>
   </si>
 </sst>
 </file>
@@ -420,9 +764,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,13 +774,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -448,10 +806,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -460,52 +821,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="S3" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -559,6 +887,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="mata_kuliah"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>A-MPK-PENGEMBANGAN KEPRIBADIAN</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>B-MKK-KEILMUAN DAN KETRAMPILAN</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>C-MKB-KEAHLIAN BERKARYA</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>D-MPB-PERILAKU BERKARYA</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>E-MBB-BERKEHIDUPAN BERMASYARAKAT</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>F-MKU/MKDU</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>G-MKDK</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>H-MKK</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>20-D1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>21-D2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>22-D3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>23-D4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>25-Profesi</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>30-S1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>32-Sp-1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>35-S2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>37-Sp-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>40-S3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -602,7 +1036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,7 +1071,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,27 +1256,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -909,78 +1344,3214 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>122</v>
+      <c r="A2" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="6">
+        <v>40429</v>
+      </c>
+      <c r="S2" s="6">
+        <v>42257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="6">
+        <v>40430</v>
+      </c>
+      <c r="S3" s="6">
+        <v>42258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="6">
+        <v>40431</v>
+      </c>
+      <c r="S4" s="6">
+        <v>42259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="6">
+        <v>40432</v>
+      </c>
+      <c r="S5" s="6">
+        <v>42260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="6">
+        <v>40433</v>
+      </c>
+      <c r="S6" s="6">
+        <v>42261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="6">
+        <v>40434</v>
+      </c>
+      <c r="S7" s="6">
+        <v>42262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="6">
+        <v>40435</v>
+      </c>
+      <c r="S8" s="6">
+        <v>42263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="6">
+        <v>40436</v>
+      </c>
+      <c r="S9" s="6">
+        <v>42264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="6">
+        <v>40437</v>
+      </c>
+      <c r="S10" s="6">
+        <v>42265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="6">
+        <v>40438</v>
+      </c>
+      <c r="S11" s="6">
+        <v>42266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="6">
+        <v>40439</v>
+      </c>
+      <c r="S12" s="6">
+        <v>42267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="6">
+        <v>40440</v>
+      </c>
+      <c r="S13" s="6">
+        <v>42268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="4">
-        <v>41890</v>
-      </c>
-      <c r="S2" s="4">
-        <v>41892</v>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="6">
+        <v>40441</v>
+      </c>
+      <c r="S14" s="6">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="6">
+        <v>40442</v>
+      </c>
+      <c r="S15" s="6">
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="6">
+        <v>40443</v>
+      </c>
+      <c r="S16" s="6">
+        <v>42271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="6">
+        <v>40444</v>
+      </c>
+      <c r="S17" s="6">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="6">
+        <v>40445</v>
+      </c>
+      <c r="S18" s="6">
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="6">
+        <v>40446</v>
+      </c>
+      <c r="S19" s="6">
+        <v>42274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="6">
+        <v>40447</v>
+      </c>
+      <c r="S20" s="6">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="6">
+        <v>40448</v>
+      </c>
+      <c r="S21" s="6">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="6">
+        <v>40449</v>
+      </c>
+      <c r="S22" s="6">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="6">
+        <v>40450</v>
+      </c>
+      <c r="S23" s="6">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="6">
+        <v>40451</v>
+      </c>
+      <c r="S24" s="6">
+        <v>42279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" s="6">
+        <v>40452</v>
+      </c>
+      <c r="S25" s="6">
+        <v>42280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" s="6">
+        <v>40453</v>
+      </c>
+      <c r="S26" s="6">
+        <v>42281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" s="6">
+        <v>40454</v>
+      </c>
+      <c r="S27" s="6">
+        <v>42282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="6">
+        <v>40455</v>
+      </c>
+      <c r="S28" s="6">
+        <v>42283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="6">
+        <v>40456</v>
+      </c>
+      <c r="S29" s="6">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" s="6">
+        <v>40457</v>
+      </c>
+      <c r="S30" s="6">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" s="6">
+        <v>40458</v>
+      </c>
+      <c r="S31" s="6">
+        <v>42286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" s="6">
+        <v>40459</v>
+      </c>
+      <c r="S32" s="6">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" s="6">
+        <v>40460</v>
+      </c>
+      <c r="S33" s="6">
+        <v>42288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" s="6">
+        <v>40461</v>
+      </c>
+      <c r="S34" s="6">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" s="6">
+        <v>40462</v>
+      </c>
+      <c r="S35" s="6">
+        <v>42290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R36" s="6">
+        <v>40463</v>
+      </c>
+      <c r="S36" s="6">
+        <v>42291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" s="6">
+        <v>40464</v>
+      </c>
+      <c r="S37" s="6">
+        <v>42292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" s="6">
+        <v>40465</v>
+      </c>
+      <c r="S38" s="6">
+        <v>42293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R39" s="6">
+        <v>40466</v>
+      </c>
+      <c r="S39" s="6">
+        <v>42294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R40" s="6">
+        <v>40467</v>
+      </c>
+      <c r="S40" s="6">
+        <v>42295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R41" s="6">
+        <v>40468</v>
+      </c>
+      <c r="S41" s="6">
+        <v>42296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R42" s="6">
+        <v>40469</v>
+      </c>
+      <c r="S42" s="6">
+        <v>42297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R43" s="6">
+        <v>40470</v>
+      </c>
+      <c r="S43" s="6">
+        <v>42298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R44" s="6">
+        <v>40471</v>
+      </c>
+      <c r="S44" s="6">
+        <v>42299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" s="6">
+        <v>40472</v>
+      </c>
+      <c r="S45" s="6">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R46" s="6">
+        <v>40473</v>
+      </c>
+      <c r="S46" s="6">
+        <v>42301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R47" s="6">
+        <v>40474</v>
+      </c>
+      <c r="S47" s="6">
+        <v>42302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R48" s="6">
+        <v>40475</v>
+      </c>
+      <c r="S48" s="6">
+        <v>42303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R49" s="6">
+        <v>40476</v>
+      </c>
+      <c r="S49" s="6">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="5">
+        <v>3</v>
+      </c>
+      <c r="H50" s="5">
+        <v>3</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R50" s="6">
+        <v>40477</v>
+      </c>
+      <c r="S50" s="6">
+        <v>42305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5">
+        <v>2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R51" s="6">
+        <v>40478</v>
+      </c>
+      <c r="S51" s="6">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
+      <c r="H52" s="5">
+        <v>3</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R52" s="6">
+        <v>40479</v>
+      </c>
+      <c r="S52" s="6">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R53" s="6">
+        <v>42245</v>
+      </c>
+      <c r="S53" s="6">
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>2</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R54" s="6">
+        <v>40481</v>
+      </c>
+      <c r="S54" s="6">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="5">
+        <v>6</v>
+      </c>
+      <c r="H55" s="5">
+        <v>6</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R55" s="6">
+        <v>40482</v>
+      </c>
+      <c r="S55" s="6">
+        <v>42310</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  <conditionalFormatting sqref="C2:C21 C23:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="D23:D1048576 D2:D21">
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>jenj_pendidikan</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>jenis_mata_kuliah</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>kel_mata_kuliah</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:Q1048576">
@@ -988,6 +4559,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>prodi</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>DD</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>ZFSDFGDG</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1015,145 +4592,145 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,10 +4738,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,10 +4749,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,10 +4760,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,10 +4771,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,10 +4782,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,10 +4804,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,10 +4815,10 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,10 +4826,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,28 +4837,28 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE(A32," | ",B32)</f>
@@ -1290,10 +4867,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C55" si="0">CONCATENATE(A33," | ",B33)</f>
@@ -1302,10 +4879,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1314,10 +4891,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -1326,10 +4903,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
         <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -1338,10 +4915,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -1350,10 +4927,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -1362,10 +4939,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -1374,10 +4951,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -1386,10 +4963,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -1398,10 +4975,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -1410,10 +4987,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
         <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -1425,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -1434,10 +5011,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -1446,10 +5023,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
         <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -1458,10 +5035,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -1470,10 +5047,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -1482,10 +5059,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -1494,10 +5071,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
         <v>116</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -1506,10 +5083,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
         <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -1518,10 +5095,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -1530,10 +5107,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
         <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -1542,10 +5119,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -1554,10 +5131,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -1565,7 +5142,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="42avc/s+Nq6q41zxYcourBPTMCZ1ss4Lki6D4V/Le70utClUerDiNJvTZfb6Tbo006WILvDaOQ5+n0IaaOnTPg==" saltValue="/7le1pYIi3vhgWrEcrkQjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>